--- a/UK/Lefseplotyear.xlsx
+++ b/UK/Lefseplotyear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdph224\Documents\GitHub\Rhizosphere-sequencing\UK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Rhizosphere-sequencing\UK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDF47AB-5D61-479D-A247-007475BE748A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7C93D0-20FE-4587-A770-D2D0C0F08695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="1200" windowWidth="16260" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5130" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Otu00002</t>
   </si>
@@ -487,15 +487,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -515,7 +515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -535,7 +535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -555,7 +555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -575,7 +575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -595,7 +595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -614,8 +614,26 @@
       <c r="F6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6">
+        <v>4.2120300000000004</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>3.50339</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1.6968599999999999E-8</v>
+      </c>
+      <c r="S6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -634,8 +652,26 @@
       <c r="F7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7">
+        <v>4.0908600000000002</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>3.4540199999999999</v>
+      </c>
+      <c r="R7">
+        <v>1.0399999999999999E-4</v>
+      </c>
+      <c r="S7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -654,8 +690,26 @@
       <c r="F8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8">
+        <v>4.0472599999999996</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>3.1750600000000002</v>
+      </c>
+      <c r="R8">
+        <v>1.47758E-3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -674,8 +728,26 @@
       <c r="F9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9">
+        <v>3.9595699999999998</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>3.2449300000000001</v>
+      </c>
+      <c r="R9">
+        <v>6.3588999999999996E-4</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -694,8 +766,26 @@
       <c r="F10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10">
+        <v>3.911</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>3.1528499999999999</v>
+      </c>
+      <c r="R10" s="1">
+        <v>3.6424399999999999E-7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -714,8 +804,26 @@
       <c r="F11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>4.1005599999999998</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>3.3922400000000001</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1.2001699999999999E-8</v>
+      </c>
+      <c r="S11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -734,8 +842,26 @@
       <c r="F12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>4.0405300000000004</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>3.0671300000000001</v>
+      </c>
+      <c r="R12">
+        <v>1.4906399999999999E-4</v>
+      </c>
+      <c r="S12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -754,8 +880,26 @@
       <c r="F13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>3.8841600000000001</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>3.3100999999999998</v>
+      </c>
+      <c r="R13" s="1">
+        <v>7.6563799999999994E-5</v>
+      </c>
+      <c r="S13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -774,8 +918,26 @@
       <c r="F14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>3.9116499999999998</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>3.1682899999999998</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2.1888499999999999E-7</v>
+      </c>
+      <c r="S14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -794,8 +956,26 @@
       <c r="F15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>3.8509699999999998</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>3.1300300000000001</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1.5256600000000001E-5</v>
+      </c>
+      <c r="S15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>

--- a/UK/Lefseplotyear.xlsx
+++ b/UK/Lefseplotyear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Rhizosphere-sequencing\UK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentp\Documents\GitHub\Rhizosphere-sequencing\UK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7C93D0-20FE-4587-A770-D2D0C0F08695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73698C96-7F79-4C06-BEAE-BC134E855193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5130" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,12 +490,12 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -515,7 +515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -535,7 +535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -555,7 +555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -575,7 +575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -595,7 +595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -633,7 +633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -671,7 +671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -709,7 +709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -747,7 +747,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -785,7 +785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -823,7 +823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -861,7 +861,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -899,7 +899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -937,7 +937,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -975,7 +975,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -995,7 +995,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1095,22 +1095,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>29</v>
       </c>
